--- a/src/Module08/Mod08Documents/gas.xlsx
+++ b/src/Module08/Mod08Documents/gas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="13">
   <si>
     <t xml:space="preserve">Fill-Up No. </t>
   </si>
@@ -516,16 +516,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -597,7 +597,7 @@
         <v>148225</v>
       </c>
       <c r="E3" s="4">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F3" s="4">
         <v>10.99</v>
@@ -615,7 +615,7 @@
         <v>6.8680000000000005E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -629,7 +629,7 @@
         <v>148400</v>
       </c>
       <c r="E4" s="4">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F4" s="4">
         <v>10.667999999999999</v>
@@ -647,7 +647,7 @@
         <v>7.3569999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -679,7 +679,7 @@
         <v>6.9760000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -878,14 +878,15 @@
       <c r="H12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>1</v>
+      <c r="I12" s="4">
+        <f>SUM(I3:I11)</f>
+        <v>42.485700000000001</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -920,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
